--- a/data/51_test.xlsx
+++ b/data/51_test.xlsx
@@ -83,6 +83,344 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>额度授信结果查询</t>
+    <rPh sb="0" eb="1">
+      <t>e du</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shou xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/queryApplyResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件结果查询接口</t>
+    <rPh sb="2" eb="3">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha xun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/file/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像传输接口</t>
+    <rPh sb="0" eb="1">
+      <t>ying xiang chuan shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同传输接口</t>
+    <rPh sb="0" eb="1">
+      <t>he tong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuan shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/contract/sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看协议结果接口</t>
+    <rPh sb="0" eb="1">
+      <t>cha kan xie yi jie guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/contract/query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放款接口</t>
+    <rPh sb="0" eb="1">
+      <t>fang kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/loan/pfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前结清试算接口</t>
+    <rPh sb="0" eb="1">
+      <t>ti qian jie qing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi suan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/preClearCalculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId": "35734386141831168"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询当前还款计划接口</t>
+    <rPh sb="0" eb="1">
+      <t>cha xun dang qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>huan kuan ji hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"35734386141831168"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购后收款通知接口</t>
+    <rPh sb="0" eb="1">
+      <t>hui gou hou</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou kuan tong zhi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jie kou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/busi/project/receiptsNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "projectId":"30844098113970111",
+  "clearTime":"2019-01-01 11:11:11"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "userId": 37259945271382016,
+  "productCode": "XJ_CZB_CAR"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceUserId": "46",
+  "transactionId": "Test_46",
+  "serviceSn": "1547905999999",
+  "applyInfo": {
+    "applyTime": "2019-02-27 14:11:05",
+    "productCode": "XJ_CZB_CAR",
+    "applySource": "api",
+    "financeChannel": 1,
+    "liveAddressProvince": "110000",
+    "liveAddressCity": "110100",
+    "liveAddressBorough": "110105",
+    "liveDetailAddress": "四川省测试地址"
+  },
+  "cardInfo": {
+    "bankCode": 34,
+    "bankCardNo": "6217002200003225701",
+    "bankPhone": "18366582857",
+    "bankNameSub": "建设银行"
+  },
+  "riskSuggestion": {
+    "disburseNum": 1,
+    "repayNum": 1,
+    "lendingNum": 1,
+    "lendingAmount": 1,
+    "firstCreditDate": "2018-01-01 09:00:00"
+  },
+  "creditInfo": {
+    "sourceCreditAmt": 1000.00,
+    "sourceCreditRate": 1
+  },
+  "personalInfo": {
+    "cardNum": "61070119850813550X",
+    "custName": "黎丹蝶",
+    "phone": "18366582979",
+    "sex": 0,
+    "age": 35,
+    "maritalStatus": 1,
+    "hasChildren": 1,
+    "personalPurchaseHouse": 2,
+    "fourVerifyResult": 0,
+    "registeredAddressProvince": "110000",
+    "registeredAddressCity": "110100",
+    "registeredAddressBorough": "110105",
+    "registeredDetailAddress": "测试地址"
+  },
+  "contactInfo": {
+    "spouseName": "人厚",
+    "spouseCardNum": "81232919711203455X",
+    "firstContactRelationship": 6,
+    "firstContactName": "小二丝",
+    "firstContactCardNum": "81232919711203455X",
+    "firstContactPhone": "13731854665"
+  },
+  "orderDetail": {
+    "dealerName": "北京王二麻子车行",
+    "manageAddressProvince": "110000",
+    "manageAddressCity": "110100",
+    "manageAddressBorough": "110105",
+    "manageDetailAddress": "北京",
+    "secondHandCarTradeName": "哈利路亚交易市场",
+    "boothNoS": "hello",
+    "manageTime": 5,
+    "employeeNum": 4,
+    "stallNum": 2,
+    "hasCompany": 0,
+    "companyName": "北京哈利路亚有线车行公司",
+    "enterpriseRegisterNumber": "123456789098765",
+    "companyType": "有线责任工资",
+    "incumbencyPosition": "法人",
+    "shareRatio": 1,
+    "carCompanyNames": "中三",
+    "currentBusinessScale": 4,
+    "manageCarPreferences": 1,
+    "stockCarTotalNum": 10,
+    "stockCarPriceRange": "10-100",
+    "stockCarPriceMidValue": 100,
+    "stockCarPriceMeanValue": 10,
+    "stockCarPriceCycleMidValue": 10,
+    "stockCarPriceCycleMeanValue": 1,
+    "manageEvaluation": 4,
+    "totalCarRelatedAmt": 10000000,
+    "averageCarRelatedAmt": 1,
+    "totalCarRelatedCnt": 3,
+    "averageCarRelatedCnt": 5
+  },
+  "imageInfo": {
+    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
+    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "creditId": "37259945351061504"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "associationId":"34745104849707008",
+  "channel":"czb",
+  "contractId":"34746648307441664",
+  "contractType":2,
+  "requestTime":"2019-02-13 11:29:29",
+  "serviceSn":"1547902959779",
+  "sourceCode":"czb",
+  "sourceUserId":"36"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel":"czb",
+  "sourceCode":"czb",
+  "sourceProjectId":"",
+  "projectId":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "channel": "czb",
+  "sourceCode": "czb",
+  "sourceProjectId": "10357490",
+  "projectId": "37562553282338816",
+  "sourceUserId": "46",
+  "serviceSn": "154790",
+  "amount": 500.00,
+  "currency": "CNY",
+  "accountNo": "6217002200003225701",
+  "accountType": 0,
+  "accountProp": 0,
+  "accountName": "黎丹蝶",
+  "id": "61070119850813550X",
+  "bankPhone": "18366582857",
+  "idType": 0,
+  "bankCode": 34
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "X-TBC-SOURCE":"tbc_zhtb_czb",
+  "X-TBC-SIGN":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/queryResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/queryUserAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/busi-api/api/v1/credit/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
   "applyInfo":
   {
@@ -208,344 +546,6 @@
   "sourceUserId":"46",
   "transactionId":"Test_49"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额度授信结果查询</t>
-    <rPh sb="0" eb="1">
-      <t>e du</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shou xin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie guo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>cha xun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进件接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/queryApplyResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进件结果查询接口</t>
-    <rPh sb="2" eb="3">
-      <t>jie guo</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>cha xun</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/file/upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影像传输接口</t>
-    <rPh sb="0" eb="1">
-      <t>ying xiang chuan shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同传输接口</t>
-    <rPh sb="0" eb="1">
-      <t>he tong</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>chuan shu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/contract/sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看协议结果接口</t>
-    <rPh sb="0" eb="1">
-      <t>cha kan xie yi jie guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/contract/query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放款接口</t>
-    <rPh sb="0" eb="1">
-      <t>fang kuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/loan/pfa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前结清试算接口</t>
-    <rPh sb="0" eb="1">
-      <t>ti qian jie qing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shi suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/preClearCalculate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId": "35734386141831168"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询当前还款计划接口</t>
-    <rPh sb="0" eb="1">
-      <t>cha xun dang qian</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>huan kuan ji hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId":"35734386141831168"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/queryRepaymentPlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回购后收款通知接口</t>
-    <rPh sb="0" eb="1">
-      <t>hui gou hou</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>shou kuan tong zhi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jie kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/busi/project/receiptsNotice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "projectId":"30844098113970111",
-  "clearTime":"2019-01-01 11:11:11"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceUserId": "46",
-  "userId": 37259945271382016,
-  "productCode": "XJ_CZB_CAR"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceUserId": "46",
-  "transactionId": "Test_46",
-  "serviceSn": "1547905999999",
-  "applyInfo": {
-    "applyTime": "2019-02-27 14:11:05",
-    "productCode": "XJ_CZB_CAR",
-    "applySource": "api",
-    "financeChannel": 1,
-    "liveAddressProvince": "110000",
-    "liveAddressCity": "110100",
-    "liveAddressBorough": "110105",
-    "liveDetailAddress": "四川省测试地址"
-  },
-  "cardInfo": {
-    "bankCode": 34,
-    "bankCardNo": "6217002200003225701",
-    "bankPhone": "18366582857",
-    "bankNameSub": "建设银行"
-  },
-  "riskSuggestion": {
-    "disburseNum": 1,
-    "repayNum": 1,
-    "lendingNum": 1,
-    "lendingAmount": 1,
-    "firstCreditDate": "2018-01-01 09:00:00"
-  },
-  "creditInfo": {
-    "sourceCreditAmt": 1000.00,
-    "sourceCreditRate": 1
-  },
-  "personalInfo": {
-    "cardNum": "61070119850813550X",
-    "custName": "黎丹蝶",
-    "phone": "18366582979",
-    "sex": 0,
-    "age": 35,
-    "maritalStatus": 1,
-    "hasChildren": 1,
-    "personalPurchaseHouse": 2,
-    "fourVerifyResult": 0,
-    "registeredAddressProvince": "110000",
-    "registeredAddressCity": "110100",
-    "registeredAddressBorough": "110105",
-    "registeredDetailAddress": "测试地址"
-  },
-  "contactInfo": {
-    "spouseName": "人厚",
-    "spouseCardNum": "81232919711203455X",
-    "firstContactRelationship": 6,
-    "firstContactName": "小二丝",
-    "firstContactCardNum": "81232919711203455X",
-    "firstContactPhone": "13731854665"
-  },
-  "orderDetail": {
-    "dealerName": "北京王二麻子车行",
-    "manageAddressProvince": "110000",
-    "manageAddressCity": "110100",
-    "manageAddressBorough": "110105",
-    "manageDetailAddress": "北京",
-    "secondHandCarTradeName": "哈利路亚交易市场",
-    "boothNoS": "hello",
-    "manageTime": 5,
-    "employeeNum": 4,
-    "stallNum": 2,
-    "hasCompany": 0,
-    "companyName": "北京哈利路亚有线车行公司",
-    "enterpriseRegisterNumber": "123456789098765",
-    "companyType": "有线责任工资",
-    "incumbencyPosition": "法人",
-    "shareRatio": 1,
-    "carCompanyNames": "中三",
-    "currentBusinessScale": 4,
-    "manageCarPreferences": 1,
-    "stockCarTotalNum": 10,
-    "stockCarPriceRange": "10-100",
-    "stockCarPriceMidValue": 100,
-    "stockCarPriceMeanValue": 10,
-    "stockCarPriceCycleMidValue": 10,
-    "stockCarPriceCycleMeanValue": 1,
-    "manageEvaluation": 4,
-    "totalCarRelatedAmt": 10000000,
-    "averageCarRelatedAmt": 1,
-    "totalCarRelatedCnt": 3,
-    "averageCarRelatedCnt": 5
-  },
-  "imageInfo": {
-    "identityImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "identityImage2": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "businessLicenseImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "rentImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "personnelGroupPhotoImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg",
-    "headPortraitImage": "http://img.bimg.126.net/photo/ZZ5EGyuUCp9hBPk6_s4Ehg==/5727171351132208489.jpg"
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "creditId": "37259945351061504"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "associationId":"34745104849707008",
-  "channel":"czb",
-  "contractId":"34746648307441664",
-  "contractType":2,
-  "requestTime":"2019-02-13 11:29:29",
-  "serviceSn":"1547902959779",
-  "sourceCode":"czb",
-  "sourceUserId":"36"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel":"czb",
-  "sourceCode":"czb",
-  "sourceProjectId":"",
-  "projectId":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "channel": "czb",
-  "sourceCode": "czb",
-  "sourceProjectId": "10357490",
-  "projectId": "37562553282338816",
-  "sourceUserId": "46",
-  "serviceSn": "154790",
-  "amount": 500.00,
-  "currency": "CNY",
-  "accountNo": "6217002200003225701",
-  "accountType": 0,
-  "accountProp": 0,
-  "accountName": "黎丹蝶",
-  "id": "61070119850813550X",
-  "bankPhone": "18366582857",
-  "idType": 0,
-  "bankCode": 34
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "X-TBC-SOURCE":"tbc_zhtb_czb",
-  "X-TBC-SIGN":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/credit/queryResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/credit/queryUserAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/busi-api/api/v1/credit/apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -938,13 +938,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -986,16 +986,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1036,16 +1036,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1086,16 +1086,16 @@
     </row>
     <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1145,13 +1145,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1202,16 +1202,16 @@
     </row>
     <row r="2" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1224,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="2" spans="1:4" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1446,16 +1446,16 @@
     </row>
     <row r="2" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1496,16 +1496,16 @@
     </row>
     <row r="2" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/51_test.xlsx
+++ b/data/51_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="api_credit" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,48 +60,6 @@
     <rPh sb="4" eb="5">
       <t>shen qing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "serviceName":"",
-  "requestNum":"",
-  "appId":"",
-  "requestTime":"",
-  "sign":"",
-  "ext":"",
-  "requestBody":{
-    "creditApplyNo":"",
-    "fullName":"",
-    "cardType":"",
-    "cardId":"",
-    "certificateDueDate":"",
-    "nativeAdd":"",
-    "mobileNo":"",
-    "emailAdd":"",
-    "sex":"",
-    "residenceaDdress":"",
-    "familyRelationship1":"",
-    "familName1":"",
-    "familyMobileTelePhone1":"",
-    "countryZone1":"",
-    "kinsfolkCorpArea1":"",
-    "familyRelationship2":"",
-    "familName2":"",
-    "familyMobileTelePhone2":"",
-    "countryZone2":"",
-    "kinsfolkCorpArea2":"",
-    "familyTelephone2":"",
-    "expireTime":"",
-    "applyAmount":"",
-    "applyRate":"",
-    "mainReturnType":"",
-    "currency":"",
-    "purpose":"",
-    "otherPurpose":"",
-    "repaySource":""
-  }
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,6 +155,126 @@
     <rPh sb="4" eb="5">
       <t>shen qign</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msgCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "serviceName":"API_REGIST",
+  "requestNum":"20190314131300000000000000000000",
+  "appId":"0",
+  "requestTime":"20190314140000",
+  "sign":"",
+  "ext":"",
+  "requestBody":{
+    "creditApplyNo":"1",
+    "productId":"0001",
+    "fullName":"秦乐荷",
+    "cardType":"N",
+    "cardId":"13082319841211958X",
+    "certificateDueDate":"2099-12-12",
+    "nativeAdd":"北京",
+    "nation":"N01",
+    "birthday":"1984-01-01",
+    "idCardAddr":"北京",
+    "mobile":"18500003333",
+    "mobileAddr":"北京",
+    "emailAddr":"001@163.com",
+    "sex":"M",
+    "residenceaAddr":"北京",
+    "craditCardNum":"1999202033331399",
+    "craditCardBank":"亦庄支行",
+    "craditCardBeginDate":"2019-09-01",
+    "eduExperience":"E05",
+    "graduationSchool":"毕业学校",
+    "degree":"学位",
+    "graduationDate":"毕业时间",
+    "marriage":"M01",
+    "childFlag":"C02",
+    "houseFlag":"H02",
+    "propertyAddr":"北京",
+    "detailPropertyAddr":"丰台区",
+    "province":"北京市",
+    "city":"北京市",
+    "area":"丰台区",
+    "familyProvinces":"角门西",
+    "familyAdd":"地铁A口",
+    "familyZip":"100100",
+    "houseArea":"010",
+    "familyTel":"102293",
+    "workCorp":"天上人间",
+    "department":"技术部",
+    "workNature":"CT09",
+    "workBeginDate":"5",
+    "industryAge":"10",
+    "totalShares":"0",
+    "unitkind":"I001",
+    "posionLevel":"CL11",
+    "corpArea":"010",
+    "workTel":"111222",
+    "workProvinces":"北京市",
+    "workAdd":"海淀区",
+    "workZip":"100101",
+    "hrContacts":"张三",
+    "hrArea":"010",
+    "hrZone":"333222",
+    "jobNature":"WP02",
+    "personNature":"LP01",
+    "monthinCome":"MI05",
+    "ortherPlatLoan":0,
+    "spouseName":"方凌寒",
+    "spouseCertType":"N01",
+    "spouseId":"654301197702054863",
+    "spousePhone":"18850339922",
+    "remark":"1",
+    "familyRelationship1":"RT06",
+    "familName1":"王二",
+    "familyMobileTelePhone1":"13322223333",
+    "countryZone1":"312330",
+    "kinsfolkCorpArea1":"010",
+    "familyRelationship2":"RT05",
+    "familName2":"李三",
+    "familyMobileTelePhone2":"13405992213",
+    "countryZone2":"901",
+    "kinsfolkCorpArea2":"091",
+    "familyTelephone2":"311200",
+    "expireTime":"2099-01-01",
+    "applyAmount":50000.00,
+    "applyRate":13.00,
+    "guarantyRateMonth":1.5,
+    "guarantyRateYear":1.5,
+    "platLoanBalance":0,
+    "craditLevel":"666",
+    "repayType":"MCEI",
+    "currency":"人民币",
+    "purpose":"资金周转",
+    "otherPurpose":"无",
+    "repaySource":"工资"
+  }
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,13 +341,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -554,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.2">
@@ -590,7 +671,10 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +689,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,20 +712,23 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -652,10 +739,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,7 +751,7 @@
     <col min="4" max="4" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,15 +764,21 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -696,10 +789,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,7 +801,7 @@
     <col min="4" max="4" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,15 +814,21 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -740,19 +839,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,15 +865,24 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -784,10 +893,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -796,7 +905,7 @@
     <col min="4" max="4" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,15 +918,21 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/51_test.xlsx
+++ b/data/51_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api_credit" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,24 +60,6 @@
     <rPh sb="4" eb="5">
       <t>shen qing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "serviceName":"",
-  "requestNum":"",
-  "appId":"",
-  "requestTime":"",
-  "sign":"",
-  "ext":"",
-  "requestBody":{
-    "creditApplyNo":"",
-    "creditNo":"",
-    "cardType":"",
-    "cardId":"",
-    "fullName":""
-  }
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -273,6 +255,165 @@
     "purpose":"资金周转",
     "otherPurpose":"无",
     "repaySource":"工资"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "serviceName":"API_WITHDRAW_NOTIFY",
+  "requestNum":"20190314131300000000000000000003",
+  "appId":"0",
+  "requestTime":"20190314140000",
+  "sign":"",
+  "ext":"",
+  "requestBody":{
+    "applyNo":"1",
+    "dueBillNo":"1",
+    "itemNo":"",
+    "acctSetupInd":"Y",
+    "borrowNo":"10029",
+    "contractNo":"29910",
+    "premiumTradeNo":"9238819",
+    "realLoanAmount":15000.00,
+    "loanRate":13.00,
+    "bizTime":"2019-03-14",
+    "loanBizDate":"2019-03-14",
+    "paycompBizDate":"2019-03-14",
+    "payStatus":"3",
+    "repayMents":[{
+    "period": 1,
+    "dueDate": "2019-04-14",
+    "amount": 2500.00,
+    "interest": 325.00,
+    "feeList": {"feeCode": "GUARANTEE-FEE", "fee": "18.75"}},
+      {"period": 2,
+    "dueDate": "2019-05-14",
+    "amount": 2500.00,
+    "interest": 325.00,
+    "feeList": {"feeCode": "GUARANTEE-FEE", "fee": "18.75"}},
+      {"period": 3,
+    "dueDate": "2019-06-14",
+    "amount": 2500.00,
+    "interest": 325.00,
+    "feeList": {"feeCode": "GUARANTEE-FEE", "fee": "18.75"}},
+      {"period": 4,
+    "dueDate": "2019-07-14",
+    "amount": 2500.00,
+    "interest": 325.00,
+    "feeList": {"feeCode": "GUARANTEE-FEE", "fee": "18.75"}},
+      {"period": 5,
+    "dueDate": "2019-06-14",
+    "amount": 2500.00,
+    "interest": 325.00,
+    "feeList": {"feeCode": "GUARANTEE-FEE", "fee": "18.75"}},
+      {"period": 6,
+    "dueDate": "2019-07-14",
+    "amount": 2500.00,
+    "interest": 325.00,
+    "feeList": {"feeCode": "GUARANTEE-FEE", "fee": "18.75"}}
+    ]
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "serviceName":"API_QUERY_WITHDRAW",
+  "requestNum":"20190314131300000000000000000004",
+  "appId":"0",
+  "requestTime":"20190314140000",
+  "sign":"",
+  "ext":"",
+  "requestBody":{
+    "applyNo":"1",
+    "itemNo":""
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "serviceName":"API_WITHDRAW",
+  "requestNum":"20190314131300000000000000000003",
+  "appId":"0",
+  "requestTime":"20190314140000",
+  "sign":"",
+  "ext":"",
+  "requestBody":{
+    "applyNo":"1",
+    "creditApplyNo":"1",
+    "creditNo":"",
+    "fullName":"秦乐荷",
+    "cartType":"N",
+    "cartId":"13082319841211958X",
+    "mobile":"18500003333",
+    "loanAmount":15000.00,
+    "loanRate":13.00,
+    "currency":"人民币",
+    "period":6,
+    "guarantyRate":1.5,
+    "payMentCardId":"6217002200003225701",
+    "payMentCardName":"李词",
+    "loanContractPic":"http://www.pptbz.com/pptpic/UploadFiles_6909/201203/2012031220134655.jpg",
+    "availableBalance":30000.00,
+    "repayType":"MCEI",
+    "purpose":"去夜店",
+    "hisLoanCount":0,
+    "hisOverdueDays":0,
+    "bankAccountName":"斯凯",
+    "bankCardNo":"6217002200003225701",
+    "bankCode":"建设银行",
+    "bankMobile":"18366582857",
+    "bankCardCount":5,
+    "overdueMonths":0,
+    "cardMaxAmount":50000.00,
+    "phoneNumQty":900,
+    "creditAmtUseRateIncreasedMonths12M":"0",
+    "avgCreditAmtUseRate6M":"0",
+    "avgAm6M":"50000"
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "serviceName":"API_CREDIT_NOTIFY",
+  "requestNum":"20190314131300000000000000000002",
+  "appId":"0",
+  "requestTime":"20190314140000",
+  "sign":"",
+  "ext":"",
+  "requestBody":{
+    "creditApplyNo":"1",
+    "creditNo":"",
+    "cardType":"N",
+    "cardId":"13082319841211958X",
+    "fullName":"秦乐荷",
+    "bankCode":"001",
+    "appLmt":50001.00,
+    "loanRate":13.00,
+    "creditBeginDate":"2019-03-14",
+    "CreditEndDate":"2019-03-14",
+    "status":4
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "serviceName":"API_QUERY_CREDIT",
+  "requestNum":"20190314131300000000000000000001",
+  "appId":"0",
+  "requestTime":"20190314140000",
+  "sign":"",
+  "ext":"",
+  "requestBody":{
+    "creditApplyNo":"1",
+    "creditNo":"",
+    "cardType":"N",
+    "cardId":"13082319841211958X",
+    "fullName":"秦乐荷"
   }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -662,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.2">
@@ -671,10 +812,10 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -688,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,23 +853,23 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +883,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F17" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,20 +906,20 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="368" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +933,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,20 +956,20 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +983,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D17" sqref="D4:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,23 +1007,23 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +1037,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F18" sqref="F2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,20 +1060,20 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="240" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/51_test.xlsx
+++ b/data/51_test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="api_credit" sheetId="2" r:id="rId1"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,7 +883,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F2:F17"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,7 +933,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,7 +983,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D4:D17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F2:F18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/51_test.xlsx
+++ b/data/51_test.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>casename</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,6 +416,34 @@
     "fullName":"秦乐荷"
   }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,22 +802,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="65.1640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,21 +828,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -827,19 +861,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,25 +885,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="240" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -880,19 +921,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,22 +945,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="368" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="368" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -930,19 +978,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,22 +1002,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -980,20 +1035,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.83203125" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,25 +1059,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1034,19 +1095,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,22 +1118,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="409" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
